--- a/water-fall/20_設計/10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
+++ b/water-fall/20_設計/10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\20_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0EF48-51CC-4089-9B58-97C33450DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC19066-0F9F-4560-8FAB-74EE1C0AF106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
   </bookViews>
@@ -214,15 +214,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S010</t>
+    <t>SC-010</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S020</t>
+    <t>SC-020</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S030</t>
+    <t>SC-030</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>S010:</a:t>
+            <a:t>SC-010:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1600,7 +1600,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>S020:</a:t>
+            <a:t>SC-020:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1721,7 +1721,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>S030:</a:t>
+            <a:t>SC-030:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -3418,9 +3418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8219D-936F-469F-BEE2-6DDDCA5CA043}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3472,7 +3470,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="str">
         <f>D4&amp;":"&amp;C4</f>
-        <v>S010:アカウント作成画面</v>
+        <v>SC-010:アカウント作成画面</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,7 +3489,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="str">
         <f t="shared" ref="G5:G6" si="0">D5&amp;":"&amp;C5</f>
-        <v>S020:ログイン画面</v>
+        <v>SC-020:ログイン画面</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3510,7 +3508,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>S030:タスク画面</v>
+        <v>SC-030:タスク画面</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/water-fall/20_設計/10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
+++ b/water-fall/20_設計/10_タスク管理システム_画面一覧・遷移図_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\20_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC19066-0F9F-4560-8FAB-74EE1C0AF106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE615DE-0D8F-4A72-8682-04F49847760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
+    <workbookView xWindow="29325" yWindow="465" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Ver.</t>
     <phoneticPr fontId="1"/>
@@ -225,6 +225,25 @@
     <t>SC-030</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>20-010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20-020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面・機能ファイル
+プレフィックス</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +360,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3416,9 +3438,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8219D-936F-469F-BEE2-6DDDCA5CA043}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3426,15 +3450,17 @@
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="5" max="6" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -3450,11 +3476,14 @@
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -3468,12 +3497,15 @@
         <v>18</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="8" t="str">
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="str">
         <f>D4&amp;":"&amp;C4</f>
         <v>SC-010:アカウント作成画面</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -3487,12 +3519,15 @@
         <v>19</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="8" t="str">
-        <f t="shared" ref="G5:G6" si="0">D5&amp;":"&amp;C5</f>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f t="shared" ref="H5:H6" si="0">D5&amp;":"&amp;C5</f>
         <v>SC-020:ログイン画面</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -3506,50 +3541,58 @@
         <v>20</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8" t="str">
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>SC-030:タスク画面</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3561,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC4E20-36D4-48CB-A0EF-D13A80763775}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
